--- a/Income/ARE_inc.xlsx
+++ b/Income/ARE_inc.xlsx
@@ -2037,16 +2037,16 @@
         <v>0.7157</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.7202</v>
+        <v>0.7184</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.7086</v>
+        <v>0.7068</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.7085</v>
+        <v>0.7066</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7111</v>
+        <v>0.7091</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7121</v>
@@ -2164,16 +2164,16 @@
         <v>0.2767</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2867</v>
+        <v>0.286</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2652</v>
+        <v>0.2645</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2719</v>
+        <v>0.2711</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2832</v>
+        <v>0.2824</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2814</v>
@@ -2291,16 +2291,16 @@
         <v>0.3917</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2742</v>
+        <v>0.2739</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2316</v>
+        <v>0.2314</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.1552</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2639</v>
+        <v>0.2636</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1383</v>
@@ -2418,16 +2418,16 @@
         <v>0.352</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2356</v>
+        <v>0.2357</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1922</v>
+        <v>0.1924</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1198</v>
+        <v>0.1203</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2291</v>
+        <v>0.2292</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0825</v>
@@ -2545,16 +2545,16 @@
         <v>-1.2601</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-1.7593</v>
+        <v>-1.755</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-1.6871</v>
+        <v>-1.6826</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-1.8202</v>
+        <v>-1.8152</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-1.8298</v>
+        <v>-1.8245</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-1.2854</v>
@@ -4082,16 +4082,16 @@
         <v>0.6188</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.6233</v>
+        <v>0.6218</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.6127</v>
+        <v>0.6111</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.6156</v>
+        <v>0.6139</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.6238</v>
+        <v>0.622</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.6288</v>
@@ -4209,16 +4209,16 @@
         <v>0.466</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.5062</v>
+        <v>0.505</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.4738</v>
+        <v>0.4726</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.4649</v>
+        <v>0.4636</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.4479</v>
+        <v>0.4466</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.4522</v>
